--- a/src/assets/archivos/Plantilla_estandar_para_cargar_servicios.xlsx
+++ b/src/assets/archivos/Plantilla_estandar_para_cargar_servicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515BFCE3-B412-4210-B4D3-3AE0DB4F87C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF29F4E0-5E37-4499-99E7-9328A48A6770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F63BF03C-E539-45D8-A7A9-6EBB3DC6BF4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F63BF03C-E539-45D8-A7A9-6EBB3DC6BF4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Servicios</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Tipo de moneda</t>
   </si>
   <si>
-    <t>Centro de costos/ Orden de inversión</t>
-  </si>
-  <si>
-    <t>Número centro de costos/ Orden de inversión</t>
-  </si>
-  <si>
     <t>Número de cuenta</t>
   </si>
   <si>
@@ -95,6 +89,15 @@
   </si>
   <si>
     <t>Orden de inversión</t>
+  </si>
+  <si>
+    <t>Centro de costos/ Orden de inversión/ ID de Servicios</t>
+  </si>
+  <si>
+    <t>Id de Servicios</t>
+  </si>
+  <si>
+    <t>Número centro de costos/ Orden de inversión/ ID de Servicios</t>
   </si>
 </sst>
 </file>
@@ -158,10 +161,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +483,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,52 +493,52 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61.85546875" customWidth="1"/>
+    <col min="7" max="7" width="69" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -547,7 +550,7 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione" xr:uid="{C557888B-4E9F-4B0F-B4C3-CF3FCF95F3F8}">
           <x14:formula1>
             <xm:f>Desplegables!$A$2:$A$9</xm:f>
@@ -558,7 +561,13 @@
           <x14:formula1>
             <xm:f>Desplegables!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F102</xm:sqref>
+          <xm:sqref>F4:F102</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione" xr:uid="{4C7EA23F-AF30-4A53-B680-8703C0B07737}">
+          <x14:formula1>
+            <xm:f>Desplegables!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -582,56 +591,59 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/archivos/Plantilla_estandar_para_cargar_servicios.xlsx
+++ b/src/assets/archivos/Plantilla_estandar_para_cargar_servicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF29F4E0-5E37-4499-99E7-9328A48A6770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC1C1BA-A3EF-42F7-9F7C-47D1B9FCE142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F63BF03C-E539-45D8-A7A9-6EBB3DC6BF4F}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8E60EC-58D0-49D4-8E8A-104F4D8A18CE}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,24 +550,18 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione" xr:uid="{C557888B-4E9F-4B0F-B4C3-CF3FCF95F3F8}">
           <x14:formula1>
             <xm:f>Desplegables!$A$2:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione" xr:uid="{906863C2-0B2D-4963-81D1-10A91E43E33B}">
-          <x14:formula1>
-            <xm:f>Desplegables!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F4:F102</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione" xr:uid="{4C7EA23F-AF30-4A53-B680-8703C0B07737}">
           <x14:formula1>
             <xm:f>Desplegables!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F3</xm:sqref>
+          <xm:sqref>F3:F134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/assets/archivos/Plantilla_estandar_para_cargar_servicios.xlsx
+++ b/src/assets/archivos/Plantilla_estandar_para_cargar_servicios.xlsx
@@ -643,4 +643,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010065AB61EBD1D26542B2E280FFA53CD654" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="696e21d476276e33d779ddb2bc4f66de">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84e1c395-7d59-405d-ad96-8ad5fd8aa952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="effc6c0671f8dfb4066fda915563918b" ns2:_="">
+    <xsd:import namespace="84e1c395-7d59-405d-ad96-8ad5fd8aa952"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="84e1c395-7d59-405d-ad96-8ad5fd8aa952" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C19BD16-44B1-4B2D-A9AC-67D473A67359}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{658351FB-06B4-48D0-A787-7AB155330C4C}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE1320E-3533-4C56-A9C8-E9F4713EE8C1}"/>
 </file>
--- a/src/assets/archivos/Plantilla_estandar_para_cargar_servicios.xlsx
+++ b/src/assets/archivos/Plantilla_estandar_para_cargar_servicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC1C1BA-A3EF-42F7-9F7C-47D1B9FCE142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9DE5C6-793C-4914-8BA9-D2DF08C3990D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F63BF03C-E539-45D8-A7A9-6EBB3DC6BF4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F63BF03C-E539-45D8-A7A9-6EBB3DC6BF4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,10 @@
     <t>Centro de costos/ Orden de inversión/ ID de Servicios</t>
   </si>
   <si>
-    <t>Id de Servicios</t>
-  </si>
-  <si>
     <t>Número centro de costos/ Orden de inversión/ ID de Servicios</t>
+  </si>
+  <si>
+    <t>ID de Servicios</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8E60EC-58D0-49D4-8E8A-104F4D8A18CE}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEFC004-CEE1-4967-A18C-65F4825E26B7}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
